--- a/data/output/Pedido_Semana_07_21022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_fitos.xlsx
@@ -820,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" s="8" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>3501010006</t>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
